--- a/biology/Zoologie/Calpini/Calpini.xlsx
+++ b/biology/Zoologie/Calpini/Calpini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Calpini sont une tribu de papillons de nuit de la famille des Erebidae, classée autrefois[Quand ?] dans la famille des Noctuidae[1]. Le proboscis de ces papillons adultes est pointue et barbelée, leur permettant de percer la peau du fruit pour en consommer le jus. Les papillons vampires, membres de cette tribu et classés dans le genre Calyptra, peuvent percer la peau des mammifères pour boire du sang[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Calpini sont une tribu de papillons de nuit de la famille des Erebidae, classée autrefois[Quand ?] dans la famille des Noctuidae. Le proboscis de ces papillons adultes est pointue et barbelée, leur permettant de percer la peau du fruit pour en consommer le jus. Les papillons vampires, membres de cette tribu et classés dans le genre Calyptra, peuvent percer la peau des mammifères pour boire du sang.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (16 avril 2024)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (16 avril 2024) :
 Polydesma Boisduval, 1833
 Calyptra Ochsenheimer, 1816
 Gonodonta Hübner, 1818
@@ -546,9 +560,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Calpini Boisduval, 1840[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Calpini Boisduval, 1840.
 </t>
         </is>
       </c>
